--- a/Table_1.xlsx
+++ b/Table_1.xlsx
@@ -1,382 +1,389 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kschaumberg/Library/CloudStorage/Dropbox/Papers/EDGI_Exercise_Validation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C244D10-270E-424C-879F-6C6B485B6296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="20160" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Table_1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
-  <si>
-    <t xml:space="preserve">Variable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Statistic (US) cases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Statistic (US) controls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Statistic (Sweden) cases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Statistic (Sweden) controls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">8535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Race</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7485 (88.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">312 (60.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Black/African American</t>
-  </si>
-  <si>
-    <t xml:space="preserve">231 (2.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84 (16.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">270 (3.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80 (15.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pacific Islander</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (0.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Native American</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61 (0.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (0.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt; 1 race</t>
-  </si>
-  <si>
-    <t xml:space="preserve">409 (4.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33 (6.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Missing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethnicity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hispanic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">612 (7.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37 (7.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-Hispanic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7834 (92.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">473 (92.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gender identity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cisgender Male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">232 (2.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126 (24.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">163 (2.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">230 (10.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cisgender Female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7587 (89%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">373 (72.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7222 (95.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018 (89.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gender Diverse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">707 (8.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 (3.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">144 (1.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (0.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sex at birth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">261 (3.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129 (24.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">171 (2.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">231 (10.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8271 (96.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">390 (75.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7357 (97.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2027 (89.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intersex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (0%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (0%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eating disorder diagnosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3347 (39.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4625 (61.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1077 (12.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">765 (10.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">932 (10.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">269 (3.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AN Mixed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1881 (22%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1494 (19.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BN-BED Mixed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1298 (15.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">376 (5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Current regular ED behaviors [EDE-Q]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2451 (33.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4303 (57.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4831 (66.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3226 (42.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1253 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Current regular ED behaviors [EDE-Q] (excl. exercise)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3264 (44.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5070 (67.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4023 (55.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2459 (32.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1248 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.29 (13.01)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.37 (16.06)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.97 (10.78)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1 (11.74)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Current BMI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.92 (9.43)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.18 (8.16)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.87 (5.32)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.63 (3.72)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDE-Q global score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15 (1.61)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17 (1.6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">519 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2258 (100%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="119">
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Statistic (US) cases</t>
+  </si>
+  <si>
+    <t>Statistic (US) controls</t>
+  </si>
+  <si>
+    <t>Statistic (Sweden) cases</t>
+  </si>
+  <si>
+    <t>Statistic (Sweden) controls</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>8535</t>
+  </si>
+  <si>
+    <t>519</t>
+  </si>
+  <si>
+    <t>7529</t>
+  </si>
+  <si>
+    <t>2258</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>7485 (88.5%)</t>
+  </si>
+  <si>
+    <t>312 (60.8%)</t>
+  </si>
+  <si>
+    <t>Black/African American</t>
+  </si>
+  <si>
+    <t>231 (2.7%)</t>
+  </si>
+  <si>
+    <t>84 (16.4%)</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>270 (3.2%)</t>
+  </si>
+  <si>
+    <t>80 (15.6%)</t>
+  </si>
+  <si>
+    <t>Pacific Islander</t>
+  </si>
+  <si>
+    <t>6 (0.1%)</t>
+  </si>
+  <si>
+    <t>Native American</t>
+  </si>
+  <si>
+    <t>61 (0.7%)</t>
+  </si>
+  <si>
+    <t>4 (0.8%)</t>
+  </si>
+  <si>
+    <t>&gt; 1 race</t>
+  </si>
+  <si>
+    <t>409 (4.8%)</t>
+  </si>
+  <si>
+    <t>33 (6.4%)</t>
+  </si>
+  <si>
+    <t>Missing</t>
+  </si>
+  <si>
+    <t>73 (NA)</t>
+  </si>
+  <si>
+    <t>6 (NA)</t>
+  </si>
+  <si>
+    <t>Ethnicity</t>
+  </si>
+  <si>
+    <t>Hispanic</t>
+  </si>
+  <si>
+    <t>612 (7.2%)</t>
+  </si>
+  <si>
+    <t>37 (7.3%)</t>
+  </si>
+  <si>
+    <t>Non-Hispanic</t>
+  </si>
+  <si>
+    <t>7834 (92.8%)</t>
+  </si>
+  <si>
+    <t>473 (92.7%)</t>
+  </si>
+  <si>
+    <t>89 (NA)</t>
+  </si>
+  <si>
+    <t>9 (NA)</t>
+  </si>
+  <si>
+    <t>Gender identity</t>
+  </si>
+  <si>
+    <t>Cisgender Male</t>
+  </si>
+  <si>
+    <t>232 (2.7%)</t>
+  </si>
+  <si>
+    <t>126 (24.5%)</t>
+  </si>
+  <si>
+    <t>163 (2.2%)</t>
+  </si>
+  <si>
+    <t>230 (10.2%)</t>
+  </si>
+  <si>
+    <t>Cisgender Female</t>
+  </si>
+  <si>
+    <t>7587 (89%)</t>
+  </si>
+  <si>
+    <t>373 (72.4%)</t>
+  </si>
+  <si>
+    <t>7222 (95.9%)</t>
+  </si>
+  <si>
+    <t>2018 (89.4%)</t>
+  </si>
+  <si>
+    <t>Gender Diverse</t>
+  </si>
+  <si>
+    <t>707 (8.3%)</t>
+  </si>
+  <si>
+    <t>16 (3.1%)</t>
+  </si>
+  <si>
+    <t>144 (1.9%)</t>
+  </si>
+  <si>
+    <t>10 (0.4%)</t>
+  </si>
+  <si>
+    <t>4 (NA)</t>
+  </si>
+  <si>
+    <t>Sex at birth</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>261 (3.1%)</t>
+  </si>
+  <si>
+    <t>129 (24.9%)</t>
+  </si>
+  <si>
+    <t>171 (2.3%)</t>
+  </si>
+  <si>
+    <t>231 (10.2%)</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>8271 (96.9%)</t>
+  </si>
+  <si>
+    <t>390 (75.1%)</t>
+  </si>
+  <si>
+    <t>7357 (97.7%)</t>
+  </si>
+  <si>
+    <t>2027 (89.8%)</t>
+  </si>
+  <si>
+    <t>Intersex</t>
+  </si>
+  <si>
+    <t>3 (0%)</t>
+  </si>
+  <si>
+    <t>1 (0%)</t>
+  </si>
+  <si>
+    <t>Eating disorder diagnosis</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>3347 (39.2%)</t>
+  </si>
+  <si>
+    <t>4625 (61.4%)</t>
+  </si>
+  <si>
+    <t>BN</t>
+  </si>
+  <si>
+    <t>1077 (12.6%)</t>
+  </si>
+  <si>
+    <t>765 (10.2%)</t>
+  </si>
+  <si>
+    <t>BED</t>
+  </si>
+  <si>
+    <t>932 (10.9%)</t>
+  </si>
+  <si>
+    <t>269 (3.6%)</t>
+  </si>
+  <si>
+    <t>AN Mixed</t>
+  </si>
+  <si>
+    <t>1881 (22%)</t>
+  </si>
+  <si>
+    <t>1494 (19.8%)</t>
+  </si>
+  <si>
+    <t>BN-BED Mixed</t>
+  </si>
+  <si>
+    <t>1298 (15.2%)</t>
+  </si>
+  <si>
+    <t>376 (5%)</t>
+  </si>
+  <si>
+    <t>Current regular ED behaviors [EDE-Q]</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>2451 (33.7%)</t>
+  </si>
+  <si>
+    <t>4303 (57.2%)</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>4831 (66.3%)</t>
+  </si>
+  <si>
+    <t>3226 (42.8%)</t>
+  </si>
+  <si>
+    <t>1253 (NA)</t>
+  </si>
+  <si>
+    <t>Current regular ED behaviors [EDE-Q] (excl. exercise)</t>
+  </si>
+  <si>
+    <t>3264 (44.8%)</t>
+  </si>
+  <si>
+    <t>5070 (67.3%)</t>
+  </si>
+  <si>
+    <t>4023 (55.2%)</t>
+  </si>
+  <si>
+    <t>2459 (32.7%)</t>
+  </si>
+  <si>
+    <t>1248 (NA)</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>34.29 (13.01)</t>
+  </si>
+  <si>
+    <t>41.37 (16.06)</t>
+  </si>
+  <si>
+    <t>31.97 (10.78)</t>
+  </si>
+  <si>
+    <t>37.1 (11.74)</t>
+  </si>
+  <si>
+    <t>Current BMI</t>
+  </si>
+  <si>
+    <t>26.92 (9.43)</t>
+  </si>
+  <si>
+    <t>29.18 (8.16)</t>
+  </si>
+  <si>
+    <t>22.87 (5.32)</t>
+  </si>
+  <si>
+    <t>24.63 (3.72)</t>
+  </si>
+  <si>
+    <t>EDE-Q global score</t>
+  </si>
+  <si>
+    <t>3.15 (1.61)</t>
+  </si>
+  <si>
+    <t>2.17 (1.6)</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>519 (100%)</t>
+  </si>
+  <si>
+    <t>2258 (100%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -412,6 +419,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -693,14 +709,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="47.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -720,7 +739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -740,7 +759,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -753,10 +772,8 @@
       <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="E3"/>
-      <c r="F3"/>
-    </row>
-    <row r="4">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -769,10 +786,8 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4"/>
-      <c r="F4"/>
-    </row>
-    <row r="5">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -785,10 +800,8 @@
       <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="E5"/>
-      <c r="F5"/>
-    </row>
-    <row r="6">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -798,11 +811,8 @@
       <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-    </row>
-    <row r="7">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -815,10 +825,8 @@
       <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="E7"/>
-      <c r="F7"/>
-    </row>
-    <row r="8">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -831,10 +839,8 @@
       <c r="D8" t="s">
         <v>29</v>
       </c>
-      <c r="E8"/>
-      <c r="F8"/>
-    </row>
-    <row r="9">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -847,10 +853,8 @@
       <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="E9"/>
-      <c r="F9"/>
-    </row>
-    <row r="10">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -863,10 +867,8 @@
       <c r="D10" t="s">
         <v>36</v>
       </c>
-      <c r="E10"/>
-      <c r="F10"/>
-    </row>
-    <row r="11">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -879,10 +881,8 @@
       <c r="D11" t="s">
         <v>39</v>
       </c>
-      <c r="E11"/>
-      <c r="F11"/>
-    </row>
-    <row r="12">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -895,10 +895,8 @@
       <c r="D12" t="s">
         <v>41</v>
       </c>
-      <c r="E12"/>
-      <c r="F12"/>
-    </row>
-    <row r="13">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -918,7 +916,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -938,7 +936,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -958,7 +956,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -971,10 +969,8 @@
       <c r="D16" t="s">
         <v>58</v>
       </c>
-      <c r="E16"/>
-      <c r="F16"/>
-    </row>
-    <row r="17">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -994,7 +990,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -1014,7 +1010,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -1024,13 +1020,11 @@
       <c r="C19" t="s">
         <v>71</v>
       </c>
-      <c r="D19"/>
       <c r="E19" t="s">
         <v>72</v>
       </c>
-      <c r="F19"/>
-    </row>
-    <row r="20">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -1040,13 +1034,11 @@
       <c r="C20" t="s">
         <v>75</v>
       </c>
-      <c r="D20"/>
       <c r="E20" t="s">
         <v>76</v>
       </c>
-      <c r="F20"/>
-    </row>
-    <row r="21">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -1056,13 +1048,11 @@
       <c r="C21" t="s">
         <v>78</v>
       </c>
-      <c r="D21"/>
       <c r="E21" t="s">
         <v>79</v>
       </c>
-      <c r="F21"/>
-    </row>
-    <row r="22">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>73</v>
       </c>
@@ -1072,13 +1062,11 @@
       <c r="C22" t="s">
         <v>81</v>
       </c>
-      <c r="D22"/>
       <c r="E22" t="s">
         <v>82</v>
       </c>
-      <c r="F22"/>
-    </row>
-    <row r="23">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>73</v>
       </c>
@@ -1088,13 +1076,11 @@
       <c r="C23" t="s">
         <v>84</v>
       </c>
-      <c r="D23"/>
       <c r="E23" t="s">
         <v>85</v>
       </c>
-      <c r="F23"/>
-    </row>
-    <row r="24">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>73</v>
       </c>
@@ -1104,13 +1090,11 @@
       <c r="C24" t="s">
         <v>87</v>
       </c>
-      <c r="D24"/>
       <c r="E24" t="s">
         <v>88</v>
       </c>
-      <c r="F24"/>
-    </row>
-    <row r="25">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>89</v>
       </c>
@@ -1120,13 +1104,11 @@
       <c r="C25" t="s">
         <v>91</v>
       </c>
-      <c r="D25"/>
       <c r="E25" t="s">
         <v>92</v>
       </c>
-      <c r="F25"/>
-    </row>
-    <row r="26">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>89</v>
       </c>
@@ -1136,13 +1118,11 @@
       <c r="C26" t="s">
         <v>94</v>
       </c>
-      <c r="D26"/>
       <c r="E26" t="s">
         <v>95</v>
       </c>
-      <c r="F26"/>
-    </row>
-    <row r="27">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>89</v>
       </c>
@@ -1152,11 +1132,8 @@
       <c r="C27" t="s">
         <v>96</v>
       </c>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-    </row>
-    <row r="28">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>97</v>
       </c>
@@ -1166,13 +1143,11 @@
       <c r="C28" t="s">
         <v>98</v>
       </c>
-      <c r="D28"/>
       <c r="E28" t="s">
         <v>99</v>
       </c>
-      <c r="F28"/>
-    </row>
-    <row r="29">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>97</v>
       </c>
@@ -1182,13 +1157,11 @@
       <c r="C29" t="s">
         <v>100</v>
       </c>
-      <c r="D29"/>
       <c r="E29" t="s">
         <v>101</v>
       </c>
-      <c r="F29"/>
-    </row>
-    <row r="30">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>97</v>
       </c>
@@ -1198,11 +1171,8 @@
       <c r="C30" t="s">
         <v>102</v>
       </c>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-    </row>
-    <row r="31">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>103</v>
       </c>
@@ -1222,7 +1192,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>108</v>
       </c>
@@ -1242,7 +1212,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>113</v>
       </c>
@@ -1252,30 +1222,26 @@
       <c r="C33" t="s">
         <v>114</v>
       </c>
-      <c r="D33"/>
       <c r="E33" t="s">
         <v>115</v>
       </c>
-      <c r="F33"/>
-    </row>
-    <row r="34">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>73</v>
       </c>
       <c r="B34" t="s">
         <v>116</v>
       </c>
-      <c r="C34"/>
       <c r="D34" t="s">
         <v>117</v>
       </c>
-      <c r="E34"/>
       <c r="F34" t="s">
         <v>118</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>